--- a/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/Light-mantled Albatross_Prince Edward Islands.xlsx
+++ b/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/Light-mantled Albatross_Prince Edward Islands.xlsx
@@ -3004,13 +3004,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7074741-DC8A-440B-8CB8-A32E84BCB349}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6EF9C486-22A4-4200-B1DC-D85AC7E3BF38}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BE23C71-33BE-439B-9972-503A6A6496C5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C791A791-D811-4110-AF08-B16695F5D880}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F57ECB74-D882-44DC-942E-C4D82F9D2A0A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5938CBF4-7853-4EDF-901B-98919233A5C1}"/>
 </file>